--- a/finanplan-2025.xlsx
+++ b/finanplan-2025.xlsx
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
   <si>
     <t xml:space="preserve">parâmetrosparâmetros</t>
   </si>
   <si>
-    <t xml:space="preserve">Despesa</t>
+    <t xml:space="preserve">Receita</t>
   </si>
   <si>
     <t xml:space="preserve">Categoria</t>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Mês</t>
   </si>
   <si>
-    <t xml:space="preserve">Moradia</t>
+    <t xml:space="preserve">Ganhos Com Investimentos</t>
   </si>
   <si>
     <t xml:space="preserve">Janeiro</t>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve">Categorias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receita</t>
   </si>
   <si>
     <t xml:space="preserve">Remuneração:</t>
@@ -279,6 +276,9 @@
     <t xml:space="preserve">Carteira</t>
   </si>
   <si>
+    <t xml:space="preserve">Casa</t>
+  </si>
+  <si>
     <t xml:space="preserve">13º Salário</t>
   </si>
   <si>
@@ -288,7 +288,7 @@
     <t xml:space="preserve">Banco do Brasil</t>
   </si>
   <si>
-    <t xml:space="preserve">Vestimenta</t>
+    <t xml:space="preserve">Roupas</t>
   </si>
   <si>
     <t xml:space="preserve">PIS/PASEP</t>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t xml:space="preserve">Banco 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aparelhos e peças</t>
   </si>
   <si>
     <t xml:space="preserve">Ganhos Com Apps</t>
@@ -339,9 +336,6 @@
     <t xml:space="preserve">Cuidados Pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">Retorno Investimentos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Julho</t>
   </si>
   <si>
@@ -366,7 +360,7 @@
     <t xml:space="preserve">Setembro</t>
   </si>
   <si>
-    <t xml:space="preserve">IPVA – Licenciamento</t>
+    <t xml:space="preserve">Comida</t>
   </si>
   <si>
     <t xml:space="preserve">Outubro</t>
@@ -414,7 +408,7 @@
     <t xml:space="preserve">Gastos Com Esporte</t>
   </si>
   <si>
-    <t xml:space="preserve">Viagens</t>
+    <t xml:space="preserve">Férias</t>
   </si>
   <si>
     <t xml:space="preserve">Assinaturas Com Educação</t>
@@ -448,7 +442,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="121">
+  <fonts count="120">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -517,6 +511,7 @@
       <color rgb="FF0000EE"/>
       <name val="Georgia"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -561,14 +556,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF4C0ECD"/>
-      <name val="Georgia"/>
       <family val="0"/>
     </font>
     <font>
@@ -2065,7 +2052,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="258">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2106,15 +2093,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2122,7 +2109,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2134,27 +2121,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2162,15 +2149,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2182,23 +2169,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2210,7 +2197,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2222,59 +2209,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="37" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="38" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="37" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="38" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="36" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="41" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="42" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2282,11 +2269,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2302,12 +2289,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="68" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="67" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="69" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2318,39 +2309,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="71" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="71" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="72" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="73" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="73" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="74" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="73" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="73" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="74" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="74" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="75" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="75" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2358,35 +2349,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="77" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="67" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="68" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="77" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="78" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="78" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="79" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="79" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="80" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="80" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="81" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="72" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="73" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="74" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="75" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="75" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2394,99 +2385,91 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="77" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="81" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="82" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="85" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="85" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="86" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="85" fillId="10" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="10" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="74" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="85" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="75" fillId="10" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="86" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="74" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="75" fillId="10" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="83" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="86" fillId="10" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="84" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="87" fillId="10" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="86" fillId="10" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="87" fillId="10" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="86" fillId="10" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="83" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="87" fillId="10" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="86" fillId="10" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="84" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="87" fillId="10" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2494,263 +2477,279 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="11" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="85" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="78" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="85" fillId="11" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="77" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="92" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="85" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="75" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="91" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="78" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="74" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="78" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="77" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="77" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="93" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="92" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="78" fillId="12" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="77" fillId="12" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="94" fillId="12" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="93" fillId="12" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="90" fillId="12" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="89" fillId="12" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="94" fillId="12" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="93" fillId="12" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="90" fillId="12" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="89" fillId="12" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="90" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="90" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="86" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="85" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="86" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="85" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="96" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="95" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="71" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="96" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="95" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="97" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="96" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="96" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="95" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="96" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="95" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="97" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="96" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="96" fillId="10" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="95" fillId="10" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="69" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="10" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="69" fillId="10" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="71" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="72" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="71" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="72" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="71" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="96" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="95" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="71" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="96" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="95" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="96" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="95" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="97" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="96" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="96" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="95" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="97" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="96" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="96" fillId="10" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="95" fillId="10" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="69" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="69" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="70" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="69" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="69" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="7" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="69" fillId="7" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="90" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="91" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="90" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="91" fillId="4" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="90" fillId="4" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="98" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="99" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="100" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="100" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="100" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="101" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2758,19 +2757,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="101" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="102" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="102" fillId="8" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="103" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="102" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2782,11 +2769,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2794,7 +2781,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="104" fillId="11" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="103" fillId="11" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2806,39 +2793,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="105" fillId="12" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="104" fillId="12" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="106" fillId="12" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="105" fillId="12" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="106" fillId="12" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="105" fillId="12" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="105" fillId="12" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="104" fillId="12" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="106" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="105" fillId="12" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="106" fillId="12" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="105" fillId="12" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="104" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="103" fillId="9" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2850,11 +2837,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="107" fillId="10" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="106" fillId="10" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="107" fillId="10" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="106" fillId="10" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2862,19 +2849,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="107" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="106" fillId="10" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="107" fillId="10" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="106" fillId="10" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="103" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="102" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2886,15 +2873,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="108" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="107" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="109" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="108" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="103" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="102" fillId="7" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2902,47 +2889,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="110" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="109" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2962,15 +2945,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2978,27 +2961,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="112" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="113" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="114" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="102" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="111" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="112" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="113" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="112" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="101" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="111" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="111" fillId="14" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3006,15 +2989,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="110" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="109" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="115" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="114" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="176" fontId="115" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="114" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3030,7 +3013,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3046,59 +3029,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="118" fillId="10" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="117" fillId="10" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="119" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="118" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="119" fillId="3" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="118" fillId="3" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="55" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="117" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="116" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="119" fillId="3" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="118" fillId="3" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="119" fillId="3" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="118" fillId="3" borderId="58" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="117" fillId="4" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="116" fillId="4" borderId="59" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="120" fillId="10" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="119" fillId="10" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3217,8 +3200,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.134018987341772"/>
-          <c:y val="0.209591474245115"/>
+          <c:x val="0.134040196233581"/>
+          <c:y val="0.21002132196162"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3236,10 +3219,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0397151898734177"/>
-          <c:y val="0.390053285968028"/>
-          <c:w val="0.959493670886076"/>
-          <c:h val="0.563765541740675"/>
+          <c:x val="0.0397214749169172"/>
+          <c:y val="0.389836531627576"/>
+          <c:w val="0.959329007754392"/>
+          <c:h val="0.563610518834399"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3354,7 +3337,7 @@
                 <c:formatCode>[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,11 +3345,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="36599321"/>
-        <c:axId val="57881391"/>
+        <c:axId val="37484808"/>
+        <c:axId val="85012113"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36599321"/>
+        <c:axId val="37484808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,14 +3382,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57881391"/>
+        <c:crossAx val="85012113"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57881391"/>
+        <c:axId val="85012113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3422,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36599321"/>
+        <c:crossAx val="37484808"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3496,8 +3479,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0868808355752493"/>
-          <c:y val="0.209591474245115"/>
+          <c:x val="0.0868945868945869"/>
+          <c:y val="0.21002132196162"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3515,10 +3498,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0397214749169172"/>
-          <c:y val="0.389698046181172"/>
-          <c:w val="0.959487260642507"/>
-          <c:h val="0.563410301953819"/>
+          <c:x val="0.0397277619499842"/>
+          <c:y val="0.389481165600569"/>
+          <c:w val="0.959322570433682"/>
+          <c:h val="0.563255152807392"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3633,7 +3616,7 @@
                 <c:formatCode>[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,11 +3624,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="64436529"/>
-        <c:axId val="19659862"/>
+        <c:axId val="9591718"/>
+        <c:axId val="33100054"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64436529"/>
+        <c:axId val="9591718"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,14 +3661,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19659862"/>
+        <c:crossAx val="33100054"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19659862"/>
+        <c:axId val="33100054"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3718,7 +3701,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64436529"/>
+        <c:crossAx val="9591718"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3775,8 +3758,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.264757081816743"/>
-          <c:y val="0.209591474245115"/>
+          <c:x val="0.264640709085154"/>
+          <c:y val="0.21002132196162"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3794,10 +3777,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0397214749169172"/>
-          <c:y val="0.389698046181172"/>
-          <c:w val="0.959487260642507"/>
-          <c:h val="0.563410301953819"/>
+          <c:x val="0.0397277619499842"/>
+          <c:y val="0.389481165600569"/>
+          <c:w val="0.959322570433682"/>
+          <c:h val="0.563255152807392"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3912,7 +3895,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,11 +3903,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="7003647"/>
-        <c:axId val="41282054"/>
+        <c:axId val="81898235"/>
+        <c:axId val="6280978"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7003647"/>
+        <c:axId val="81898235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,14 +3940,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41282054"/>
+        <c:crossAx val="6280978"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41282054"/>
+        <c:axId val="6280978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +3980,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7003647"/>
+        <c:crossAx val="81898235"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4206,16 +4189,16 @@
                   <c:v>Supermercado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Moradia</c:v>
+                  <c:v>Casa</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Vestimenta</c:v>
+                  <c:v>Roupas</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Acessórios Pessoais</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Aparelhos e peças</c:v>
+                  <c:v>Contas</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Saúde</c:v>
@@ -4230,7 +4213,7 @@
                   <c:v>Taxas Financeiras</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>IPVA – Licenciamento</c:v>
+                  <c:v>Comida</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Documentos e impostos</c:v>
@@ -4272,7 +4255,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4331,12 +4314,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="39299019"/>
-        <c:axId val="86220221"/>
+        <c:axId val="33510723"/>
+        <c:axId val="71291511"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="39299019"/>
+        <c:axId val="33510723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4369,7 +4352,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86220221"/>
+        <c:crossAx val="71291511"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,7 +4360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86220221"/>
+        <c:axId val="71291511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,7 +4393,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39299019"/>
+        <c:crossAx val="33510723"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -4584,7 +4567,7 @@
                   <c:v>Gastos Com Esporte</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Viagens</c:v>
+                  <c:v>Férias</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4616,12 +4599,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="2079351"/>
-        <c:axId val="25657724"/>
+        <c:axId val="58799759"/>
+        <c:axId val="15501606"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2079351"/>
+        <c:axId val="58799759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,7 +4637,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25657724"/>
+        <c:crossAx val="15501606"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4662,7 +4645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25657724"/>
+        <c:axId val="15501606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,7 +4678,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2079351"/>
+        <c:crossAx val="58799759"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -4901,12 +4884,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="80902676"/>
-        <c:axId val="66622994"/>
+        <c:axId val="52322304"/>
+        <c:axId val="2501287"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80902676"/>
+        <c:axId val="52322304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4939,7 +4922,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66622994"/>
+        <c:crossAx val="2501287"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4947,7 +4930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66622994"/>
+        <c:axId val="2501287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,7 +4963,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80902676"/>
+        <c:crossAx val="52322304"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -5042,10 +5025,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0317973689948397"/>
-          <c:y val="0.141698155145588"/>
-          <c:w val="0.944690747874119"/>
-          <c:h val="0.65903534118693"/>
+          <c:x val="0.031798524548461"/>
+          <c:y val="0.141713904634878"/>
+          <c:w val="0.944652396700222"/>
+          <c:h val="0.658997443592309"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5167,7 +5150,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5399,7 +5382,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5440,11 +5423,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="52032726"/>
-        <c:axId val="51807434"/>
+        <c:axId val="43205028"/>
+        <c:axId val="65868775"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52032726"/>
+        <c:axId val="43205028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5477,7 +5460,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51807434"/>
+        <c:crossAx val="65868775"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5485,7 +5468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51807434"/>
+        <c:axId val="65868775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,7 +5501,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52032726"/>
+        <c:crossAx val="43205028"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -5611,8 +5594,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.128578206547525"/>
-          <c:y val="0.210301953818828"/>
+          <c:x val="0.128756722556153"/>
+          <c:y val="0.210732054015636"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5630,10 +5613,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0395381938953029"/>
-          <c:y val="0.389698046181172"/>
-          <c:w val="0.95951288945121"/>
-          <c:h val="0.563410301953819"/>
+          <c:x val="0.0395444479595065"/>
+          <c:y val="0.389481165600569"/>
+          <c:w val="0.959348307497627"/>
+          <c:h val="0.563255152807392"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5748,7 +5731,7 @@
                 <c:formatCode>#,##0.00\ ;\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,11 +5739,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="3342297"/>
-        <c:axId val="93036600"/>
+        <c:axId val="66507982"/>
+        <c:axId val="14195881"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3342297"/>
+        <c:axId val="66507982"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,14 +5776,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93036600"/>
+        <c:crossAx val="14195881"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93036600"/>
+        <c:axId val="14195881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5833,7 +5816,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3342297"/>
+        <c:crossAx val="66507982"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -5970,16 +5953,16 @@
                   <c:v>Supermercado</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Moradia</c:v>
+                  <c:v>Casa</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Vestimenta</c:v>
+                  <c:v>Roupas</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Acessórios Pessoais</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Aparelhos e peças</c:v>
+                  <c:v>Contas</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Saúde</c:v>
@@ -5994,7 +5977,7 @@
                   <c:v>Taxas Financeiras</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>IPVA – Licenciamento</c:v>
+                  <c:v>Comida</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Documentos e impostos</c:v>
@@ -6036,7 +6019,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6095,12 +6078,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="64795151"/>
-        <c:axId val="38228728"/>
+        <c:axId val="95856552"/>
+        <c:axId val="49185892"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="64795151"/>
+        <c:axId val="95856552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6133,7 +6116,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38228728"/>
+        <c:crossAx val="49185892"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6141,7 +6124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38228728"/>
+        <c:axId val="49185892"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6174,7 +6157,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64795151"/>
+        <c:crossAx val="95856552"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
@@ -6201,9 +6184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6213,7 +6196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="433800" y="993600"/>
-          <a:ext cx="8577360" cy="421920"/>
+          <a:ext cx="8577000" cy="421560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6283,9 +6266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>306360</xdr:colOff>
+      <xdr:colOff>306000</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6295,7 +6278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="428040" y="1470960"/>
-          <a:ext cx="8573400" cy="5407200"/>
+          <a:ext cx="8573040" cy="5406840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6613,13 +6596,12 @@
           <a:r>
             <a:rPr b="1" lang="pt-BR" sz="1100" strike="noStrike" u="sng">
               <a:solidFill>
-                <a:srgbClr val="4c0ecd"/>
+                <a:srgbClr val="0000ee"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uFillTx/>
               <a:latin typeface="Georgia"/>
               <a:ea typeface="DejaVu Sans"/>
-              <a:hlinkClick r:id="rId1" action="ppaction://hlinksldjump"/>
             </a:rPr>
             <a:t>parâmetros,</a:t>
           </a:r>
@@ -6956,7 +6938,6 @@
               <a:uFillTx/>
               <a:latin typeface="Georgia"/>
               <a:ea typeface="DejaVu Sans"/>
-              <a:hlinkClick r:id="rId2" action="ppaction://hlinksldjump"/>
             </a:rPr>
             <a:t>parâmetros</a:t>
           </a:r>
@@ -6991,9 +6972,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
+      <xdr:colOff>48960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7001,14 +6982,14 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect l="0" t="24919" r="-726" b="31481"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3714120" y="47880"/>
-          <a:ext cx="1796760" cy="731160"/>
+          <a:ext cx="1796400" cy="730800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7030,9 +7011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>720360</xdr:colOff>
+      <xdr:colOff>720000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7042,7 +7023,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="999360" y="333000"/>
-          <a:ext cx="6035400" cy="304920"/>
+          <a:ext cx="6035040" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7099,21 +7080,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1238040</xdr:colOff>
+      <xdr:colOff>1237680</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Forma 29">
-          <a:hlinkClick r:id="rId4"/>
+          <a:hlinkClick r:id="rId2"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3422520" y="6450840"/>
-          <a:ext cx="1695240" cy="251640"/>
+          <a:ext cx="1694880" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7179,9 +7160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1652400</xdr:colOff>
+      <xdr:colOff>1652040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7191,7 +7172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2094480" y="723600"/>
-          <a:ext cx="8270280" cy="874080"/>
+          <a:ext cx="8269920" cy="873720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7223,9 +7204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>393480</xdr:colOff>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7235,7 +7216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1869120" y="2886480"/>
-          <a:ext cx="9843120" cy="3019320"/>
+          <a:ext cx="9842760" cy="3018960"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7269,9 +7250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7281,7 +7262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1877400" y="5958360"/>
-          <a:ext cx="4989600" cy="4605480"/>
+          <a:ext cx="4989240" cy="4605120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7315,9 +7296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>700920</xdr:rowOff>
+      <xdr:rowOff>700560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7327,7 +7308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4096800" y="846000"/>
-          <a:ext cx="35280" cy="647280"/>
+          <a:ext cx="34920" cy="646920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7357,9 +7338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
+      <xdr:colOff>363240</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7369,7 +7350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6934320" y="8228880"/>
-          <a:ext cx="4748040" cy="2267280"/>
+          <a:ext cx="4747680" cy="2266920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7403,9 +7384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7415,7 +7396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="77400" y="1636200"/>
-          <a:ext cx="1695600" cy="3209760"/>
+          <a:ext cx="1695240" cy="3209400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7447,9 +7428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>239400</xdr:colOff>
+      <xdr:colOff>239040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>192600</xdr:rowOff>
+      <xdr:rowOff>192240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7459,7 +7440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2455200" y="85680"/>
-          <a:ext cx="6035400" cy="304920"/>
+          <a:ext cx="6035040" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7516,9 +7497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7527,7 +7508,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2008800" y="640800"/>
-        <a:ext cx="2274840" cy="1013040"/>
+        <a:ext cx="2274480" cy="1012680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7546,9 +7527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>582480</xdr:colOff>
+      <xdr:colOff>582120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7557,7 +7538,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4184280" y="640800"/>
-        <a:ext cx="2274480" cy="1013040"/>
+        <a:ext cx="2274120" cy="1012680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7576,9 +7557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>222480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7587,7 +7568,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6199560" y="640800"/>
-        <a:ext cx="2274480" cy="1013040"/>
+        <a:ext cx="2274120" cy="1012680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7606,9 +7587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>37080</xdr:colOff>
+      <xdr:colOff>36720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>564480</xdr:rowOff>
+      <xdr:rowOff>564120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7618,7 +7599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="93240" y="983160"/>
-          <a:ext cx="1679760" cy="373680"/>
+          <a:ext cx="1679400" cy="373320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7679,9 +7660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7693,7 +7674,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="97200" y="2286000"/>
-          <a:ext cx="1620000" cy="341280"/>
+          <a:ext cx="1619640" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7761,9 +7742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7775,7 +7756,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="97200" y="2689200"/>
-          <a:ext cx="1620000" cy="341280"/>
+          <a:ext cx="1619640" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7843,9 +7824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7857,7 +7838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="97200" y="3092400"/>
-          <a:ext cx="1620000" cy="341280"/>
+          <a:ext cx="1619640" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7949,9 +7930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7963,7 +7944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="97200" y="3492000"/>
-          <a:ext cx="1620000" cy="341280"/>
+          <a:ext cx="1619640" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8031,9 +8012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8045,7 +8026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="97200" y="3888000"/>
-          <a:ext cx="1620000" cy="341280"/>
+          <a:ext cx="1619640" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8113,9 +8094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8127,7 +8108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="97200" y="1882080"/>
-          <a:ext cx="1620000" cy="341280"/>
+          <a:ext cx="1619640" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8195,9 +8176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>738360</xdr:colOff>
+      <xdr:colOff>738000</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8206,7 +8187,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2066400" y="5922360"/>
-        <a:ext cx="4548240" cy="4462560"/>
+        <a:ext cx="4547880" cy="4462200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8225,9 +8206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>363600</xdr:colOff>
+      <xdr:colOff>363240</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8237,7 +8218,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6934320" y="5958000"/>
-          <a:ext cx="4748040" cy="2267280"/>
+          <a:ext cx="4747680" cy="2266920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8271,9 +8252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>136800</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8282,7 +8263,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7006680" y="6012000"/>
-        <a:ext cx="4449240" cy="1949040"/>
+        <a:ext cx="4448880" cy="1948680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8301,9 +8282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8312,7 +8293,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7078680" y="8280360"/>
-        <a:ext cx="4449240" cy="1949040"/>
+        <a:ext cx="4448880" cy="1948680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8331,9 +8312,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>341640</xdr:colOff>
+      <xdr:colOff>341280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8342,7 +8323,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1754280" y="2815200"/>
-        <a:ext cx="9906120" cy="3238920"/>
+        <a:ext cx="9905760" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8361,9 +8342,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1100880</xdr:colOff>
+      <xdr:colOff>1100520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8373,7 +8354,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2127600" y="1835280"/>
-          <a:ext cx="5823000" cy="361800"/>
+          <a:ext cx="5822640" cy="361440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8432,9 +8413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>415080</xdr:colOff>
+      <xdr:colOff>414720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>700920</xdr:rowOff>
+      <xdr:rowOff>700560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8444,7 +8425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6256080" y="846000"/>
-          <a:ext cx="35280" cy="647280"/>
+          <a:ext cx="34920" cy="646920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8474,9 +8455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8485,7 +8466,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8346960" y="642240"/>
-        <a:ext cx="2275920" cy="1013040"/>
+        <a:ext cx="2275560" cy="1012680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8504,9 +8485,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>700920</xdr:rowOff>
+      <xdr:rowOff>700560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8516,7 +8497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8361720" y="846000"/>
-          <a:ext cx="35280" cy="647280"/>
+          <a:ext cx="34920" cy="646920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8546,9 +8527,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>237240</xdr:colOff>
+      <xdr:colOff>236880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8563,7 +8544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="176400" y="0"/>
-          <a:ext cx="1796760" cy="731160"/>
+          <a:ext cx="1796400" cy="730800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8585,9 +8566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8597,7 +8578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2496960" y="399240"/>
-          <a:ext cx="4368240" cy="236880"/>
+          <a:ext cx="4367880" cy="236520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8654,9 +8635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>385200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8666,7 +8647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8604720" y="1766880"/>
-          <a:ext cx="3099600" cy="1061280"/>
+          <a:ext cx="3099240" cy="1060920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8851,9 +8832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:colOff>58680</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8865,7 +8846,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10590120" y="583200"/>
-          <a:ext cx="1756800" cy="1085400"/>
+          <a:ext cx="1756440" cy="1085040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8983,9 +8964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1559880</xdr:colOff>
+      <xdr:colOff>1559520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8997,7 +8978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="97200" y="4284000"/>
-          <a:ext cx="1620000" cy="341280"/>
+          <a:ext cx="1619640" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9070,9 +9051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2064240</xdr:colOff>
+      <xdr:colOff>2063880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>267840</xdr:rowOff>
+      <xdr:rowOff>267480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9084,7 +9065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="369000" y="234000"/>
-          <a:ext cx="1695240" cy="251640"/>
+          <a:ext cx="1694880" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9150,9 +9131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9161,7 +9142,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13408200" y="628560"/>
-        <a:ext cx="4831920" cy="4234320"/>
+        <a:ext cx="4831560" cy="4233960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9180,9 +9161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1747800</xdr:colOff>
+      <xdr:colOff>1747440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>270000</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9194,7 +9175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="52560" y="198000"/>
-          <a:ext cx="1695240" cy="251640"/>
+          <a:ext cx="1694880" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9260,9 +9241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1731960</xdr:colOff>
+      <xdr:colOff>1731600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>270000</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9274,7 +9255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36720" y="198000"/>
-          <a:ext cx="1695240" cy="251640"/>
+          <a:ext cx="1694880" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9340,9 +9321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1731240</xdr:colOff>
+      <xdr:colOff>1730880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>269280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9354,7 +9335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="36000" y="234000"/>
-          <a:ext cx="1695240" cy="251640"/>
+          <a:ext cx="1694880" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9420,9 +9401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1729080</xdr:colOff>
+      <xdr:colOff>1728720</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>275040</xdr:rowOff>
+      <xdr:rowOff>274680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9434,7 +9415,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33840" y="278640"/>
-          <a:ext cx="1695240" cy="251640"/>
+          <a:ext cx="1694880" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9500,9 +9481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2021400</xdr:colOff>
+      <xdr:colOff>2021040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>276120</xdr:rowOff>
+      <xdr:rowOff>275760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9514,7 +9495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="326160" y="348480"/>
-          <a:ext cx="1695240" cy="251640"/>
+          <a:ext cx="1694880" cy="251280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9580,9 +9561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>403200</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9594,7 +9575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8738280" y="753120"/>
-          <a:ext cx="1695240" cy="341280"/>
+          <a:ext cx="1694880" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9662,9 +9643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9676,7 +9657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8737200" y="1306080"/>
-          <a:ext cx="1695240" cy="341280"/>
+          <a:ext cx="1694880" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9744,9 +9725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9758,7 +9739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8737200" y="1849680"/>
-          <a:ext cx="1695240" cy="341280"/>
+          <a:ext cx="1694880" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9826,9 +9807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
+      <xdr:colOff>401760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9840,7 +9821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8737200" y="2384640"/>
-          <a:ext cx="1695240" cy="341280"/>
+          <a:ext cx="1694880" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10015,8 +9996,8 @@
   </sheetPr>
   <dimension ref="B1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10310,7 +10291,7 @@
   <dimension ref="A1:AMK18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13495,7 +13476,7 @@
       </c>
       <c r="H9" s="46" t="n">
         <f aca="false">IF(E9="Receita",VLOOKUP(F10,Receita!A1:M10,Parametro!E14,0),VLOOKUP(F10,Despesa!A3:M21,Parametro!E14,0))</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="42"/>
@@ -13514,9 +13495,9 @@
       <c r="G10" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="46" t="n">
+      <c r="H10" s="46" t="e">
         <f aca="false">IF(E10="Receita",VLOOKUP(F10,Receita!A1:M10,Parametro!E14,0),VLOOKUP(F10,Despesa!A3:M21,Parametro!E14,0))</f>
-        <v>50</v>
+        <v>#N/A</v>
       </c>
       <c r="I10" s="53"/>
       <c r="K10" s="48"/>
@@ -14699,7 +14680,7 @@
       </c>
       <c r="H2" s="71" t="n">
         <f aca="false">O9</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
@@ -15726,7 +15707,7 @@
       </c>
       <c r="C3" s="77" t="n">
         <f aca="false">DRE!B$3*$B3</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D3" s="77" t="n">
         <f aca="false">DRE!C$3*$B3</f>
@@ -15774,7 +15755,7 @@
       </c>
       <c r="O3" s="78" t="n">
         <f aca="false">SUM(C3:N3)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15786,7 +15767,7 @@
       </c>
       <c r="C4" s="77" t="n">
         <f aca="false">DRE!B$3*$B4</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="77" t="n">
         <f aca="false">DRE!C$3*$B4</f>
@@ -15834,7 +15815,7 @@
       </c>
       <c r="O4" s="78" t="n">
         <f aca="false">SUM(C4:N4)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15846,7 +15827,7 @@
       </c>
       <c r="C5" s="77" t="n">
         <f aca="false">DRE!B$3*$B5</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="77" t="n">
         <f aca="false">DRE!C$3*$B5</f>
@@ -15894,7 +15875,7 @@
       </c>
       <c r="O5" s="78" t="n">
         <f aca="false">SUM(C5:N5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15966,7 +15947,7 @@
       </c>
       <c r="C7" s="77" t="n">
         <f aca="false">DRE!B$3*$B7</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="77" t="n">
         <f aca="false">DRE!C$3*$B7</f>
@@ -16014,7 +15995,7 @@
       </c>
       <c r="O7" s="78" t="n">
         <f aca="false">SUM(C7:N7)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16026,7 +16007,7 @@
       </c>
       <c r="C8" s="77" t="n">
         <f aca="false">DRE!B$3*$B8</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="77" t="n">
         <f aca="false">DRE!C$3*$B8</f>
@@ -16074,7 +16055,7 @@
       </c>
       <c r="O8" s="78" t="n">
         <f aca="false">SUM(C8:N8)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16087,7 +16068,7 @@
       </c>
       <c r="C9" s="81" t="n">
         <f aca="false">SUM(C3:C8)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9" s="81" t="n">
         <f aca="false">SUM(D3:D8)</f>
@@ -16135,7 +16116,7 @@
       </c>
       <c r="O9" s="82" t="n">
         <f aca="false">SUM(C9:N9)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="83"/>
       <c r="Q9" s="83"/>
@@ -17169,7 +17150,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17267,11 +17248,9 @@
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="94" t="str">
         <f aca="false">Parametro!B3</f>
-        <v>Moradia</v>
-      </c>
-      <c r="B4" s="95" t="n">
-        <v>50</v>
-      </c>
+        <v>Casa</v>
+      </c>
+      <c r="B4" s="95"/>
       <c r="C4" s="95"/>
       <c r="D4" s="95"/>
       <c r="E4" s="95"/>
@@ -17285,13 +17264,13 @@
       <c r="M4" s="95"/>
       <c r="N4" s="97" t="n">
         <f aca="false">IF(A4="","",SUM(B4:M4))</f>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="94" t="str">
         <f aca="false">Parametro!B4</f>
-        <v>Vestimenta</v>
+        <v>Roupas</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
@@ -17335,7 +17314,7 @@
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="94" t="str">
         <f aca="false">Parametro!B6</f>
-        <v>Aparelhos e peças</v>
+        <v>Contas</v>
       </c>
       <c r="B7" s="95"/>
       <c r="C7" s="95"/>
@@ -17446,7 +17425,7 @@
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="94" t="str">
         <f aca="false">Parametro!B11</f>
-        <v>IPVA – Licenciamento</v>
+        <v>Comida</v>
       </c>
       <c r="B12" s="98"/>
       <c r="C12" s="98"/>
@@ -17772,7 +17751,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="94" t="str">
         <f aca="false">Parametro!B25</f>
-        <v>Viagens</v>
+        <v>Férias</v>
       </c>
       <c r="B27" s="100"/>
       <c r="C27" s="100"/>
@@ -20942,7 +20921,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21002,17 +20981,17 @@
       <c r="A2" s="109"/>
       <c r="B2" s="110"/>
       <c r="C2" s="111" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D2" s="109"/>
       <c r="E2" s="112"/>
       <c r="F2" s="113"/>
       <c r="G2" s="114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="115" t="n">
         <f aca="false">SUM(N:N)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="115"/>
       <c r="J2" s="114"/>
@@ -21156,11 +21135,9 @@
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="117" t="str">
         <f aca="false">Parametro!D8</f>
-        <v>Retorno Investimentos</v>
-      </c>
-      <c r="B9" s="118" t="n">
-        <v>100</v>
-      </c>
+        <v>Ganhos Com Investimentos</v>
+      </c>
+      <c r="B9" s="118"/>
       <c r="C9" s="118"/>
       <c r="D9" s="118"/>
       <c r="E9" s="118"/>
@@ -21174,7 +21151,7 @@
       <c r="M9" s="119"/>
       <c r="N9" s="120" t="n">
         <f aca="false">SUM(B9:M9)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21299,13 +21276,13 @@
       <c r="A2" s="130"/>
       <c r="B2" s="131"/>
       <c r="C2" s="130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="132"/>
       <c r="E2" s="133"/>
       <c r="F2" s="134"/>
       <c r="G2" s="135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="136" t="n">
         <f aca="false">SUM(B5:M5)</f>
@@ -21319,7 +21296,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="139" t="n">
         <f aca="false">SUMIFS($E$9:$E$22,$A$9:$A$22,B1,$D$9:$D$22,"Entradas")</f>
@@ -21372,7 +21349,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="139" t="n">
         <f aca="false">SUMIFS($E$9:$E$22,$A$9:$A$22,B1,$D$9:$D$22,"Saídas")*-1</f>
@@ -22503,7 +22480,7 @@
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="149"/>
       <c r="C7" s="150"/>
@@ -22523,17 +22500,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="156"/>
       <c r="D8" s="156" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="158" t="s">
+      <c r="F8" s="159" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="159" t="s">
-        <v>41</v>
       </c>
       <c r="G8" s="156"/>
       <c r="H8" s="156"/>
@@ -22548,17 +22525,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="118"/>
       <c r="D9" s="118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="118" t="n">
         <v>500</v>
       </c>
       <c r="F9" s="162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="118"/>
       <c r="H9" s="118"/>
@@ -22573,17 +22550,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="118"/>
       <c r="D10" s="118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="118" t="n">
         <v>450</v>
       </c>
       <c r="F10" s="162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="118"/>
       <c r="H10" s="118"/>
@@ -23091,7 +23068,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="170" t="s">
         <v>5</v>
@@ -24144,14 +24121,14 @@
       <c r="A2" s="172"/>
       <c r="B2" s="172"/>
       <c r="C2" s="172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="173" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="174" t="n">
         <f aca="false">M13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" s="172"/>
       <c r="G2" s="173"/>
@@ -25174,7 +25151,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="176" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="177" t="n">
         <f aca="false">Parametro!G2</f>
@@ -25182,47 +25159,47 @@
       </c>
       <c r="C3" s="177" t="n">
         <f aca="false">B13</f>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="D3" s="177" t="n">
         <f aca="false">C13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3" s="177" t="n">
         <f aca="false">D13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" s="177" t="n">
         <f aca="false">E13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" s="177" t="n">
         <f aca="false">F13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" s="177" t="n">
         <f aca="false">G13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I3" s="177" t="n">
         <f aca="false">H13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" s="177" t="n">
         <f aca="false">I13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K3" s="177" t="n">
         <f aca="false">J13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L3" s="177" t="n">
         <f aca="false">K13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M3" s="177" t="n">
         <f aca="false">L13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" s="178"/>
       <c r="O3" s="178"/>
@@ -27262,7 +27239,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="183"/>
       <c r="C5" s="183"/>
@@ -28289,11 +28266,11 @@
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="185" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B6" s="186" t="n">
         <f aca="false">DRE!B3</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6" s="186" t="n">
         <f aca="false">DRE!C3</f>
@@ -29352,7 +29329,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="189" t="n">
         <f aca="false">'Outras Movimentações'!B3</f>
@@ -31440,7 +31417,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="194"/>
       <c r="C9" s="194"/>
@@ -32467,11 +32444,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="196" t="n">
         <f aca="false">DRE!B4*-1</f>
-        <v>-50</v>
+        <v>-0</v>
       </c>
       <c r="C10" s="196" t="n">
         <f aca="false">DRE!C4*-1</f>
@@ -33530,7 +33507,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="199" t="n">
         <f aca="false">'Outras Movimentações'!B4</f>
@@ -35618,55 +35595,55 @@
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="202" t="n">
         <f aca="false">SUM(B3:B11)</f>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C13" s="202" t="n">
         <f aca="false">SUM(C3:C11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" s="202" t="n">
         <f aca="false">SUM(D3:D11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E13" s="202" t="n">
         <f aca="false">SUM(E3:E11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F13" s="202" t="n">
         <f aca="false">SUM(F3:F11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G13" s="202" t="n">
         <f aca="false">SUM(G3:G11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H13" s="202" t="n">
         <f aca="false">SUM(H3:H11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I13" s="202" t="n">
         <f aca="false">SUM(I3:I11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J13" s="202" t="n">
         <f aca="false">SUM(J3:J11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K13" s="202" t="n">
         <f aca="false">SUM(K3:K11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L13" s="202" t="n">
         <f aca="false">SUM(L3:L11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M13" s="202" t="n">
         <f aca="false">SUM(M3:M11)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" s="184"/>
       <c r="O13" s="184"/>
@@ -37706,10 +37683,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="205" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="206" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="206" t="s">
-        <v>53</v>
       </c>
       <c r="C15" s="207"/>
       <c r="D15" s="207"/>
@@ -44910,7 +44887,7 @@
       <c r="C22" s="213"/>
       <c r="D22" s="213"/>
       <c r="E22" s="213"/>
-      <c r="F22" s="216"/>
+      <c r="F22" s="213"/>
       <c r="G22" s="213"/>
       <c r="H22" s="213"/>
       <c r="I22" s="213"/>
@@ -45934,18 +45911,18 @@
         <f aca="false">Parametro!F9</f>
         <v>Banco 07</v>
       </c>
-      <c r="B23" s="217"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="219"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="218"/>
       <c r="N23" s="215"/>
       <c r="O23" s="215"/>
       <c r="P23" s="215"/>
@@ -46958,54 +46935,54 @@
       <c r="AMI23" s="215"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="221" t="n">
+      <c r="B24" s="220" t="n">
         <f aca="false">SUM(B16:B21)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="221" t="n">
+      <c r="C24" s="220" t="n">
         <f aca="false">SUM(C16:C21)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="221" t="n">
+      <c r="D24" s="220" t="n">
         <f aca="false">SUM(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="221" t="n">
+      <c r="E24" s="220" t="n">
         <f aca="false">SUM(E16:E21)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="221" t="n">
+      <c r="F24" s="220" t="n">
         <f aca="false">SUM(F16:F21)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="221" t="n">
+      <c r="G24" s="220" t="n">
         <f aca="false">SUM(G16:G21)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="221" t="n">
+      <c r="H24" s="220" t="n">
         <f aca="false">SUM(H16:H21)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="221" t="n">
+      <c r="I24" s="220" t="n">
         <f aca="false">SUM(I16:I21)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="221" t="n">
+      <c r="J24" s="220" t="n">
         <f aca="false">SUM(J16:J21)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="221" t="n">
+      <c r="K24" s="220" t="n">
         <f aca="false">SUM(K16:K21)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="221" t="n">
+      <c r="L24" s="220" t="n">
         <f aca="false">SUM(L16:L21)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="221" t="n">
+      <c r="M24" s="220" t="n">
         <f aca="false">SUM(M16:M21)</f>
         <v>0</v>
       </c>
@@ -48021,56 +47998,56 @@
       <c r="AMI24" s="184"/>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="222" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="223" t="n">
+      <c r="A25" s="221" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="222" t="n">
         <f aca="false">B24-B13</f>
-        <v>-550</v>
-      </c>
-      <c r="C25" s="223" t="n">
+        <v>-500</v>
+      </c>
+      <c r="C25" s="222" t="n">
         <f aca="false">C24-C13</f>
-        <v>-100</v>
-      </c>
-      <c r="D25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D25" s="222" t="n">
         <f aca="false">D24-D13</f>
-        <v>-100</v>
-      </c>
-      <c r="E25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E25" s="222" t="n">
         <f aca="false">E24-E13</f>
-        <v>-100</v>
-      </c>
-      <c r="F25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F25" s="222" t="n">
         <f aca="false">F24-F13</f>
-        <v>-100</v>
-      </c>
-      <c r="G25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="G25" s="222" t="n">
         <f aca="false">G24-G13</f>
-        <v>-100</v>
-      </c>
-      <c r="H25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H25" s="222" t="n">
         <f aca="false">H24-H13</f>
-        <v>-100</v>
-      </c>
-      <c r="I25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="I25" s="222" t="n">
         <f aca="false">I24-I13</f>
-        <v>-100</v>
-      </c>
-      <c r="J25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="J25" s="222" t="n">
         <f aca="false">J24-J13</f>
-        <v>-100</v>
-      </c>
-      <c r="K25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K25" s="222" t="n">
         <f aca="false">K24-K13</f>
-        <v>-100</v>
-      </c>
-      <c r="L25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="L25" s="222" t="n">
         <f aca="false">L24-L13</f>
-        <v>-100</v>
-      </c>
-      <c r="M25" s="223" t="n">
+        <v>-50</v>
+      </c>
+      <c r="M25" s="222" t="n">
         <f aca="false">M24-M13</f>
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="N25" s="184"/>
       <c r="O25" s="184"/>
@@ -49084,78 +49061,78 @@
       <c r="AMI25" s="184"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="224"/>
-      <c r="B26" s="225"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="225"/>
-      <c r="I26" s="225"/>
-      <c r="J26" s="225"/>
-      <c r="K26" s="225"/>
-      <c r="L26" s="225"/>
-      <c r="M26" s="225"/>
+      <c r="A26" s="223"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="226"/>
+      <c r="E29" s="225"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="226"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="226"/>
-      <c r="L30" s="226"/>
-      <c r="M30" s="226"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="225"/>
+      <c r="H30" s="225"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="225"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="225"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="226"/>
-      <c r="C31" s="226"/>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="226"/>
-      <c r="H31" s="226"/>
-      <c r="I31" s="226"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
+      <c r="B31" s="225"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="225"/>
+      <c r="G31" s="225"/>
+      <c r="H31" s="225"/>
+      <c r="I31" s="225"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="225"/>
+      <c r="L31" s="225"/>
+      <c r="M31" s="225"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="226"/>
-      <c r="C32" s="226"/>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="226"/>
-      <c r="H32" s="226"/>
-      <c r="I32" s="226"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="226"/>
-      <c r="L32" s="226"/>
-      <c r="M32" s="226"/>
+      <c r="B32" s="225"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="225"/>
+      <c r="E32" s="225"/>
+      <c r="F32" s="225"/>
+      <c r="G32" s="225"/>
+      <c r="H32" s="225"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="225"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="226"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="226"/>
-      <c r="L33" s="226"/>
-      <c r="M33" s="226"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="225"/>
+      <c r="G33" s="225"/>
+      <c r="H33" s="225"/>
+      <c r="I33" s="225"/>
+      <c r="J33" s="225"/>
+      <c r="K33" s="225"/>
+      <c r="L33" s="225"/>
+      <c r="M33" s="225"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="cc3d" objects="true" scenarios="true"/>
@@ -49190,44 +49167,44 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="226" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="227" t="s">
+      <c r="C1" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="227" t="s">
+      <c r="D1" s="226" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="227" t="s">
+      <c r="E1" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="227" t="s">
+      <c r="F1" s="226" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="227" t="s">
+      <c r="G1" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="227" t="s">
+      <c r="H1" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="227" t="s">
+      <c r="I1" s="226" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="227" t="s">
+      <c r="J1" s="226" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="227" t="s">
+      <c r="K1" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="227" t="s">
+      <c r="L1" s="226" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="227" t="s">
+      <c r="M1" s="226" t="s">
         <v>66</v>
-      </c>
-      <c r="M1" s="227" t="s">
-        <v>67</v>
       </c>
       <c r="N1" s="171"/>
       <c r="O1" s="171"/>
@@ -50241,34 +50218,34 @@
       <c r="AMI1" s="171"/>
     </row>
     <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="228"/>
-      <c r="B2" s="229" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="230" t="n">
+      <c r="A2" s="227"/>
+      <c r="B2" s="228" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="229" t="n">
         <f aca="false">SUM(B3:M3)-SUM(B4:M4)</f>
-        <v>50</v>
-      </c>
-      <c r="D2" s="230"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="229"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="232" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="230" t="n">
+        <f aca="false">SUM(B3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="230"/>
+      <c r="J2" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="231" t="n">
-        <f aca="false">SUM(B3:M3)</f>
-        <v>100</v>
-      </c>
-      <c r="I2" s="231"/>
-      <c r="J2" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="231" t="n">
+      <c r="K2" s="230" t="n">
         <f aca="false">SUM(B4:M4)</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="231"/>
-      <c r="M2" s="232"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="230"/>
+      <c r="M2" s="231"/>
       <c r="N2" s="171"/>
       <c r="O2" s="171"/>
       <c r="P2" s="171"/>
@@ -51281,193 +51258,193 @@
       <c r="AMI2" s="171"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="234" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="235" t="n">
+      <c r="A3" s="233" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="234" t="n">
         <f aca="false">SUM(Receita!B3:B3000)</f>
-        <v>100</v>
-      </c>
-      <c r="C3" s="235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="234" t="n">
         <f aca="false">SUM(Receita!C3:C3000)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="235" t="n">
+      <c r="D3" s="234" t="n">
         <f aca="false">SUM(Receita!D3:D3000)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="235" t="n">
+      <c r="E3" s="234" t="n">
         <f aca="false">SUM(Receita!E3:E3000)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="235" t="n">
+      <c r="F3" s="234" t="n">
         <f aca="false">SUM(Receita!F3:F3000)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="235" t="n">
+      <c r="G3" s="234" t="n">
         <f aca="false">SUM(Receita!G3:G3000)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="235" t="n">
+      <c r="H3" s="234" t="n">
         <f aca="false">SUM(Receita!H3:H3000)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="235" t="n">
+      <c r="I3" s="234" t="n">
         <f aca="false">SUM(Receita!I3:I3000)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="235" t="n">
+      <c r="J3" s="234" t="n">
         <f aca="false">SUM(Receita!J3:J3000)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="235" t="n">
+      <c r="K3" s="234" t="n">
         <f aca="false">SUM(Receita!K3:K3000)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="235" t="n">
+      <c r="L3" s="234" t="n">
         <f aca="false">SUM(Receita!L3:L3000)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="235" t="n">
+      <c r="M3" s="234" t="n">
         <f aca="false">SUM(Receita!M3:M3000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="234" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="235" t="n">
+      <c r="A4" s="233" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="234" t="n">
         <f aca="false">SUM(Despesa!B3:B33)</f>
-        <v>50</v>
-      </c>
-      <c r="C4" s="235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="234" t="n">
         <f aca="false">SUM(Despesa!C3:C33)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="235" t="n">
+      <c r="D4" s="234" t="n">
         <f aca="false">SUM(Despesa!D3:D33)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="235" t="n">
+      <c r="E4" s="234" t="n">
         <f aca="false">SUM(Despesa!E3:E33)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="235" t="n">
+      <c r="F4" s="234" t="n">
         <f aca="false">SUM(Despesa!F3:F33)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="235" t="n">
+      <c r="G4" s="234" t="n">
         <f aca="false">SUM(Despesa!G3:G33)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="235" t="n">
+      <c r="H4" s="234" t="n">
         <f aca="false">SUM(Despesa!H3:H33)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="235" t="n">
+      <c r="I4" s="234" t="n">
         <f aca="false">SUM(Despesa!I3:I33)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="235" t="n">
+      <c r="J4" s="234" t="n">
         <f aca="false">SUM(Despesa!J3:J33)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="235" t="n">
+      <c r="K4" s="234" t="n">
         <f aca="false">SUM(Despesa!K3:K33)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="235" t="n">
+      <c r="L4" s="234" t="n">
         <f aca="false">SUM(Despesa!L3:L33)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="235" t="n">
+      <c r="M4" s="234" t="n">
         <f aca="false">SUM(Despesa!M3:M33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="236" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="237" t="n">
+      <c r="A5" s="235" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="236" t="n">
         <f aca="false">B3-B4</f>
-        <v>50</v>
-      </c>
-      <c r="C5" s="237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="236" t="n">
         <f aca="false">C3-C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="237" t="n">
+      <c r="D5" s="236" t="n">
         <f aca="false">D3-D4</f>
         <v>0</v>
       </c>
-      <c r="E5" s="237" t="n">
+      <c r="E5" s="236" t="n">
         <f aca="false">E3-E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="237" t="n">
+      <c r="F5" s="236" t="n">
         <f aca="false">F3-F4</f>
         <v>0</v>
       </c>
-      <c r="G5" s="237" t="n">
+      <c r="G5" s="236" t="n">
         <f aca="false">G3-G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="237" t="n">
+      <c r="H5" s="236" t="n">
         <f aca="false">H3-H4</f>
         <v>0</v>
       </c>
-      <c r="I5" s="237" t="n">
+      <c r="I5" s="236" t="n">
         <f aca="false">I3-I4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="237" t="n">
+      <c r="J5" s="236" t="n">
         <f aca="false">J3-J4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="237" t="n">
+      <c r="K5" s="236" t="n">
         <f aca="false">K3-K4</f>
         <v>0</v>
       </c>
-      <c r="L5" s="237" t="n">
+      <c r="L5" s="236" t="n">
         <f aca="false">L3-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="237" t="n">
+      <c r="M5" s="236" t="n">
         <f aca="false">M3-M4</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="238"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="239"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="240"/>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
+      <c r="A7" s="239"/>
+      <c r="B7" s="239"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="239"/>
+      <c r="M7" s="239"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -51496,615 +51473,615 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="241" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="240" width="26.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="241" width="25.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="240" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="243" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="243" t="s">
+      <c r="D1" s="242" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="243" t="s">
+      <c r="E1" s="242" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="243" t="s">
+      <c r="F1" s="243" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="244" t="s">
+      <c r="G1" s="243" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="244" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="245" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="244" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="245" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="246" t="s">
+      <c r="C2" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D2,B2)</f>
+        <v>Salário</v>
+      </c>
+      <c r="D2" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D2,B2)</f>
-        <v>Supermercado</v>
-      </c>
-      <c r="D2" s="246" t="s">
+      <c r="E2" s="247" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="248" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="248" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="249" t="s">
+      <c r="G2" s="249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="244"/>
+      <c r="B3" s="245" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="250" t="n">
+      <c r="C3" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D3,B3)</f>
+        <v>13º Salário</v>
+      </c>
+      <c r="D3" s="245" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="250" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="251" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="244"/>
+      <c r="B4" s="245" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D4,B4)</f>
+        <v>PIS/PASEP</v>
+      </c>
+      <c r="D4" s="245" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="250" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="251" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="244"/>
+      <c r="B5" s="245" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D5,B5)</f>
+        <v>FGTS</v>
+      </c>
+      <c r="D5" s="245" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="250" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="251" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="244"/>
+      <c r="B6" s="245" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D6,B6)</f>
+        <v>Ganhos Com Apps</v>
+      </c>
+      <c r="D6" s="245" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="250" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="251" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="244"/>
+      <c r="B7" s="245" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D7,B7)</f>
+        <v>Rendimentos De Contas</v>
+      </c>
+      <c r="D7" s="245" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="250" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="251" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="244"/>
+      <c r="B8" s="245" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D8,B8)</f>
+        <v>Ganhos Com Investimentos</v>
+      </c>
+      <c r="D8" s="245" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="250" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="251" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="244"/>
+      <c r="B9" s="245" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="246" t="str">
+        <f aca="false">IF(Painel!$E$9="Receita",D9,B9)</f>
+        <v>Outros</v>
+      </c>
+      <c r="D9" s="252" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="250" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="253" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="244"/>
+      <c r="B10" s="245" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="246" t="n">
+        <f aca="false">IF(Painel!$E$9="Receita",D10,B10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="245"/>
-      <c r="B3" s="246" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D3,B3)</f>
-        <v>Moradia</v>
-      </c>
-      <c r="D3" s="246" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="251" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="252" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="245"/>
-      <c r="B4" s="246" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D4,B4)</f>
-        <v>Vestimenta</v>
-      </c>
-      <c r="D4" s="246" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="251" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="252" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="245"/>
-      <c r="B5" s="246" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D5,B5)</f>
-        <v>Acessórios Pessoais</v>
-      </c>
-      <c r="D5" s="246" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="251" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="252" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="245"/>
-      <c r="B6" s="246" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D6,B6)</f>
-        <v>Aparelhos e peças</v>
-      </c>
-      <c r="D6" s="246" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="251" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="252" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="245"/>
-      <c r="B7" s="246" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D7,B7)</f>
-        <v>Saúde</v>
-      </c>
-      <c r="D7" s="246" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="251" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="252" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="245"/>
-      <c r="B8" s="246" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D8,B8)</f>
-        <v>Cuidados Pessoais</v>
-      </c>
-      <c r="D8" s="246" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="251" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="252" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="245"/>
-      <c r="B9" s="246" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D9,B9)</f>
-        <v>Academia</v>
-      </c>
-      <c r="D9" s="253" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="251" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="254" t="s">
+      <c r="D10" s="254"/>
+      <c r="E10" s="250" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="245"/>
-      <c r="B10" s="246" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="244"/>
+      <c r="B11" s="245" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D10,B10)</f>
-        <v>Taxas Financeiras</v>
-      </c>
-      <c r="D10" s="255"/>
-      <c r="E10" s="251" t="s">
+      <c r="C11" s="246" t="n">
+        <f aca="false">IF(Painel!$E$9="Receita",D11,B11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="254"/>
+      <c r="E11" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="245"/>
-      <c r="B11" s="246" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="244"/>
+      <c r="B12" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D11,B11)</f>
-        <v>IPVA – Licenciamento</v>
-      </c>
-      <c r="D11" s="255"/>
-      <c r="E11" s="251" t="s">
+      <c r="C12" s="246" t="n">
+        <f aca="false">IF(Painel!$E$9="Receita",D12,B12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="254"/>
+      <c r="E12" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="245"/>
-      <c r="B12" s="246" t="s">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="244"/>
+      <c r="B13" s="245" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D12,B12)</f>
-        <v>Documentos e impostos</v>
-      </c>
-      <c r="D12" s="255"/>
-      <c r="E12" s="251" t="s">
+      <c r="C13" s="246" t="n">
+        <f aca="false">IF(Painel!$E$9="Receita",D13,B13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="254"/>
+      <c r="E13" s="250" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="245"/>
-      <c r="B13" s="246" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="244"/>
+      <c r="B14" s="245" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="247" t="str">
-        <f aca="false">IF(Painel!$E$9="Receita",D13,B13)</f>
-        <v>Combustível</v>
-      </c>
-      <c r="D13" s="255"/>
-      <c r="E13" s="251" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="245"/>
-      <c r="B14" s="246" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="247" t="str">
+      <c r="C14" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D14,B14)</f>
-        <v>Veículos</v>
-      </c>
-      <c r="D14" s="255"/>
-      <c r="E14" s="256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="254"/>
+      <c r="E14" s="255" t="n">
         <f aca="false">_xlfn.IFS(Painel!G10="janeiro",2,Painel!G10="fevereiro",3,Painel!G10="março",4,Painel!G10="abril",5,Painel!G10="maio",6,Painel!G10="junho",7,Painel!G10="julho",8,Painel!G10="agosto",9,Painel!G10="setembro",10,Painel!G10="outubro",11,Painel!G10="novembro",12,Painel!G10="dezembro",13)</f>
         <v>2</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="245"/>
-      <c r="B15" s="246" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="247" t="str">
+      <c r="A15" s="244"/>
+      <c r="B15" s="245" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D15,B15)</f>
-        <v>Seguro do Veículo</v>
-      </c>
-      <c r="D15" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="254"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="245"/>
-      <c r="B16" s="246" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="247" t="str">
+      <c r="A16" s="244"/>
+      <c r="B16" s="245" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D16,B16)</f>
-        <v>Assinaturas</v>
-      </c>
-      <c r="D16" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="254"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="245"/>
-      <c r="B17" s="246" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="247" t="str">
+      <c r="A17" s="244"/>
+      <c r="B17" s="245" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D17,B17)</f>
-        <v>Celular</v>
-      </c>
-      <c r="D17" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="254"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="245"/>
-      <c r="B18" s="246" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="247" t="str">
+      <c r="A18" s="244"/>
+      <c r="B18" s="245" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D18,B18)</f>
-        <v>Doação</v>
-      </c>
-      <c r="D18" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="254"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="245"/>
-      <c r="B19" s="246" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="247" t="str">
+      <c r="A19" s="244"/>
+      <c r="B19" s="245" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D19,B19)</f>
-        <v>Presentes</v>
-      </c>
-      <c r="D19" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="254"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="245"/>
-      <c r="B20" s="257" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="247" t="str">
+      <c r="A20" s="244"/>
+      <c r="B20" s="256" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D20,B20)</f>
-        <v>Outros</v>
-      </c>
-      <c r="D20" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="254"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="258" t="s">
+      <c r="A21" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="246" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="247" t="str">
+      <c r="B21" s="245" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D21,B21)</f>
-        <v>Bar</v>
-      </c>
-      <c r="D21" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="254"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="258"/>
-      <c r="B22" s="246" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="247" t="str">
+      <c r="A22" s="257"/>
+      <c r="B22" s="245" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D22,B22)</f>
-        <v>Festas e Eventos</v>
-      </c>
-      <c r="D22" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="254"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="258"/>
-      <c r="B23" s="246" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="247" t="str">
+      <c r="A23" s="257"/>
+      <c r="B23" s="245" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D23,B23)</f>
-        <v>Jogos de Apostas</v>
-      </c>
-      <c r="D23" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="254"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="258"/>
-      <c r="B24" s="246" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="247" t="str">
+      <c r="A24" s="257"/>
+      <c r="B24" s="245" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D24,B24)</f>
-        <v>Gastos Com Esporte</v>
-      </c>
-      <c r="D24" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="254"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="258"/>
-      <c r="B25" s="257" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="247" t="str">
+      <c r="A25" s="257"/>
+      <c r="B25" s="256" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D25,B25)</f>
-        <v>Viagens</v>
-      </c>
-      <c r="D25" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="254"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="258" t="s">
+      <c r="A26" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="246" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="247" t="str">
+      <c r="B26" s="245" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D26,B26)</f>
-        <v>Assinaturas Com Educação</v>
-      </c>
-      <c r="D26" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="254"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="258"/>
-      <c r="B27" s="246" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="247" t="str">
+      <c r="A27" s="257"/>
+      <c r="B27" s="245" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D27,B27)</f>
-        <v>Livros</v>
-      </c>
-      <c r="D27" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="254"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="258"/>
-      <c r="B28" s="246" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="247" t="str">
+      <c r="A28" s="257"/>
+      <c r="B28" s="245" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D28,B28)</f>
-        <v>Cursos</v>
-      </c>
-      <c r="D28" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="254"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="258"/>
-      <c r="B29" s="246" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="247" t="str">
+      <c r="A29" s="257"/>
+      <c r="B29" s="245" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D29,B29)</f>
-        <v>Aulas</v>
-      </c>
-      <c r="D29" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="254"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="258"/>
-      <c r="B30" s="257" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="247" t="str">
+      <c r="A30" s="257"/>
+      <c r="B30" s="256" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D30,B30)</f>
-        <v>Outros</v>
-      </c>
-      <c r="D30" s="255"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="254"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="255"/>
-      <c r="C31" s="247" t="n">
+      <c r="B31" s="254"/>
+      <c r="C31" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D31,B31)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="255"/>
+      <c r="D31" s="254"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="255"/>
-      <c r="C32" s="247" t="n">
+      <c r="B32" s="254"/>
+      <c r="C32" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D32,B32)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="255"/>
+      <c r="D32" s="254"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="255"/>
-      <c r="C33" s="247" t="n">
+      <c r="B33" s="254"/>
+      <c r="C33" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D33,B33)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="255"/>
+      <c r="D33" s="254"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="255"/>
-      <c r="C34" s="247" t="n">
+      <c r="B34" s="254"/>
+      <c r="C34" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D34,B34)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="255"/>
+      <c r="D34" s="254"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="255"/>
-      <c r="C35" s="247" t="n">
+      <c r="B35" s="254"/>
+      <c r="C35" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D35,B35)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="255"/>
+      <c r="D35" s="254"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="255"/>
-      <c r="C36" s="247" t="n">
+      <c r="B36" s="254"/>
+      <c r="C36" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D36,B36)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="255"/>
+      <c r="D36" s="254"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="255"/>
-      <c r="C37" s="247" t="n">
+      <c r="B37" s="254"/>
+      <c r="C37" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D37,B37)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="255"/>
+      <c r="D37" s="254"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="255"/>
-      <c r="C38" s="247" t="n">
+      <c r="B38" s="254"/>
+      <c r="C38" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D38,B38)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="255"/>
+      <c r="D38" s="254"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="255"/>
-      <c r="C39" s="247" t="n">
+      <c r="B39" s="254"/>
+      <c r="C39" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D39,B39)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="255"/>
+      <c r="D39" s="254"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="255"/>
-      <c r="C40" s="247" t="n">
+      <c r="B40" s="254"/>
+      <c r="C40" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D40,B40)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="255"/>
+      <c r="D40" s="254"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="255"/>
-      <c r="C41" s="247" t="n">
+      <c r="B41" s="254"/>
+      <c r="C41" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D41,B41)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="255"/>
+      <c r="D41" s="254"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="255"/>
-      <c r="C42" s="247" t="n">
+      <c r="B42" s="254"/>
+      <c r="C42" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D42,B42)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="255"/>
+      <c r="D42" s="254"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="255"/>
-      <c r="C43" s="247" t="n">
+      <c r="B43" s="254"/>
+      <c r="C43" s="246" t="n">
         <f aca="false">IF(Painel!$E$9="Receita",D43,B43)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="255"/>
+      <c r="D43" s="254"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>

--- a/finanplan-2025.xlsx
+++ b/finanplan-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="579"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Informações" sheetId="1" r:id="rId1"/>
@@ -2822,12 +2822,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="113068288"/>
-        <c:axId val="113070080"/>
+        <c:axId val="122439936"/>
+        <c:axId val="122441728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="113068288"/>
+        <c:axId val="122439936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,14 +2858,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113070080"/>
+        <c:crossAx val="122441728"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113070080"/>
+        <c:axId val="122441728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2873,7 +2873,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113068288"/>
+        <c:crossAx val="122439936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2889,7 +2889,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3067,12 +3067,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="113111040"/>
-        <c:axId val="113112576"/>
+        <c:axId val="122478592"/>
+        <c:axId val="122480128"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="113111040"/>
+        <c:axId val="122478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,14 +3103,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113112576"/>
+        <c:crossAx val="122480128"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113112576"/>
+        <c:axId val="122480128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +3118,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113111040"/>
+        <c:crossAx val="122478592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3134,7 +3134,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3312,12 +3312,12 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:shape val="box"/>
-        <c:axId val="110515712"/>
-        <c:axId val="110517248"/>
+        <c:axId val="122045952"/>
+        <c:axId val="122047488"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="110515712"/>
+        <c:axId val="122045952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,14 +3348,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110517248"/>
+        <c:crossAx val="122047488"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110517248"/>
+        <c:axId val="122047488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,7 +3363,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110515712"/>
+        <c:crossAx val="122045952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3379,7 +3379,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3396,10 +3396,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.1782889485523609E-2"/>
-          <c:y val="0.14179691892499705"/>
-          <c:w val="0.94448878891227062"/>
-          <c:h val="0.65883278983470184"/>
+          <c:x val="3.1782889485523616E-2"/>
+          <c:y val="0.14179691892499707"/>
+          <c:w val="0.94448878891227039"/>
+          <c:h val="0.65883278983470173"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3567,12 +3567,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:dPt>
-            <c:idx val="9"/>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-          </c:dPt>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr rot="-2640000" wrap="none"/>
@@ -3691,11 +3685,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="113586944"/>
-        <c:axId val="113588480"/>
+        <c:axId val="122892288"/>
+        <c:axId val="122893824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113586944"/>
+        <c:axId val="122892288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,14 +3720,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113588480"/>
+        <c:crossAx val="122893824"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113588480"/>
+        <c:axId val="122893824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,7 +3735,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113586944"/>
+        <c:crossAx val="122892288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3758,9 +3752,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.7731397342957795E-2"/>
-          <c:y val="1.5618493199569294E-2"/>
-          <c:w val="0.15346318773166712"/>
+          <c:x val="2.7731397342957799E-2"/>
+          <c:y val="1.5618493199569296E-2"/>
+          <c:w val="0.1534631877316672"/>
           <c:h val="7.2238275172260516E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3799,7 +3793,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6776,7 +6770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -7064,7 +7058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AML23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
@@ -12504,7 +12498,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -16055,8 +16049,8 @@
   <dimension ref="A1:XFD1033"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -19822,7 +19816,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -48045,7 +48039,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -50356,9 +50350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
